--- a/Sombreros.xlsx
+++ b/Sombreros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bravo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AAE1D6-3823-4C31-8B4C-D63EFD6C6CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D16E3F4-E0DE-4863-B759-4D8BD5BE5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="94">
   <si>
     <t>Material</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>C:\xampp\htdocs\bravo\assets\sombreros\100X_BICOLOR_RANDADO_COPA_DURANGO.webp</t>
+  </si>
+  <si>
+    <t>Diagonal</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H66" totalsRowShown="0">
+  <autoFilter ref="A1:H66" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tipo de sombrero"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Color"/>
@@ -807,10 +810,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1461,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>43</v>
@@ -1469,9 +1472,7 @@
       <c r="F28" s="9">
         <v>2500</v>
       </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1481,7 +1482,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>43</v>
@@ -1504,104 +1505,104 @@
         <v>76</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="D31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="E32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G33" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="9">
@@ -1619,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>48</v>
@@ -1642,7 +1643,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>48</v>
@@ -1665,7 +1666,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>48</v>
@@ -1688,7 +1689,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>48</v>
@@ -1711,7 +1712,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>48</v>
@@ -1734,7 +1735,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>48</v>
@@ -1754,10 +1755,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>48</v>
@@ -1780,7 +1781,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>48</v>
@@ -1803,7 +1804,7 @@
         <v>76</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>48</v>
@@ -1826,7 +1827,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>48</v>
@@ -1849,7 +1850,7 @@
         <v>76</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>48</v>
@@ -1872,7 +1873,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>48</v>
@@ -1889,16 +1890,16 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>45</v>
@@ -1918,7 +1919,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>43</v>
@@ -1933,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>43</v>
@@ -1956,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>43</v>
@@ -1979,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>43</v>
@@ -2002,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>43</v>
@@ -2025,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>49</v>
       </c>
@@ -2033,31 +2034,31 @@
         <v>66</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G53" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="D54" s="8" t="s">
         <v>43</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>43</v>
@@ -2094,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>49</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>43</v>
@@ -2117,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>49</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>43</v>
@@ -2140,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>49</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>43</v>
@@ -2163,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>49</v>
       </c>
@@ -2171,156 +2172,180 @@
         <v>76</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G59" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G60" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="E61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G61" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="E62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="E63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="16">
+      <c r="E64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="16">
         <v>2100</v>
       </c>
-      <c r="G63" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="E65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="17">
         <v>2100</v>
       </c>
-      <c r="G64" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="G65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="16">
+      <c r="E66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="16">
         <v>1500</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G66" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2339,7 +2364,7 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/Sombreros.xlsx
+++ b/Sombreros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bravo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D16E3F4-E0DE-4863-B759-4D8BD5BE5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EFD2FD-5404-4F88-BD52-3DE030429751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="95">
   <si>
     <t>Material</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Diagonal</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -496,12 +499,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Material"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Forma"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Color"/>
+    <tableColumn id="4" xr3:uid="{419C12FE-293C-408A-B726-40E8543709EF}" name="Unidad"/>
+    <tableColumn id="5" xr3:uid="{77FA8AEF-71A8-4264-A875-ADBDBB885B58}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2364,7 +2369,7 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3491,16 +3496,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3510,8 +3517,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3522,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +3557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3566,7 +3579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>

--- a/Sombreros.xlsx
+++ b/Sombreros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bravo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EFD2FD-5404-4F88-BD52-3DE030429751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2759E04-7857-43B7-A6FD-D1805882CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="106">
   <si>
     <t>Material</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Color</t>
   </si>
   <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>Cuero</t>
   </si>
   <si>
@@ -70,7 +76,7 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Unidad</t>
+    <t>link</t>
   </si>
   <si>
     <t>Durango</t>
@@ -262,6 +268,9 @@
     <t>Hexagonal</t>
   </si>
   <si>
+    <t>./../../assets/sombreros/100X_BICOLOR_RANDADO_COPA_DURANGO.webp</t>
+  </si>
+  <si>
     <t>Cross Ivory</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
     <t>Randado 3x3</t>
   </si>
   <si>
+    <t>Diagonal</t>
+  </si>
+  <si>
     <t>George</t>
   </si>
   <si>
@@ -298,16 +310,37 @@
     <t>Sisol</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>C:\xampp\htdocs\bravo\assets\sombreros\100X_BICOLOR_RANDADO_COPA_DURANGO.webp</t>
-  </si>
-  <si>
-    <t>Diagonal</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <t>./../../assets/sombreros/durango_100_flower_full.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100_randado.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_randado_blanco.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_ojillo.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_mountain.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_hexagonal.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_line.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_diamond_100x.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_diamante_ivory_randado.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/durango_100x_star_ivory.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/100x_durango_3x3_ivory.webp</t>
   </si>
 </sst>
 </file>
@@ -327,13 +360,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -385,21 +418,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,16 +441,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,16 +462,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -448,11 +484,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -476,7 +508,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Calidad"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Precio"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unidad"/>
-    <tableColumn id="8" xr3:uid="{0C08B2A4-A7F0-4142-A2A8-54CE2BF5277A}" name="link"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,7 +524,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Calidad"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Precio"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Unidad"/>
-    <tableColumn id="7" xr3:uid="{0CE790D3-C799-4D96-927F-C231C0179D90}" name="link" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,8 +537,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Material"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Forma"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Color"/>
-    <tableColumn id="4" xr3:uid="{419C12FE-293C-408A-B726-40E8543709EF}" name="Unidad"/>
-    <tableColumn id="5" xr3:uid="{77FA8AEF-71A8-4264-A875-ADBDBB885B58}" name="Link"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unidad"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,1540 +849,1574 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>91</v>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9">
         <v>2500</v>
       </c>
-      <c r="G2" s="15">
-        <v>1</v>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="9">
         <v>2500</v>
       </c>
-      <c r="G3" s="15">
-        <v>1</v>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="9">
         <v>2500</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" s="9">
         <v>2500</v>
       </c>
-      <c r="G5" s="15">
-        <v>1</v>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9">
         <v>2500</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9">
         <v>2500</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="9">
         <v>2500</v>
       </c>
-      <c r="G8" s="15">
-        <v>1</v>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9">
         <v>2500</v>
       </c>
-      <c r="G9" s="15">
-        <v>1</v>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="9">
         <v>2500</v>
       </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>92</v>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="9">
         <v>2500</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="9">
         <v>2500</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="9">
         <v>2500</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="9">
         <v>2500</v>
       </c>
-      <c r="G15" s="15">
-        <v>1</v>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G25" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="D31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2500</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="9">
         <v>2500</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="9">
         <v>2500</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F34" s="9">
         <v>2500</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="9">
         <v>2500</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F36" s="9">
         <v>2500</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="9">
         <v>2500</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" s="9">
         <v>2500</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="9">
         <v>2500</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F40" s="9">
         <v>2500</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F41" s="9">
         <v>2500</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F42" s="9">
         <v>2500</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" s="9">
         <v>2500</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="9">
         <v>2500</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F45" s="9">
         <v>2500</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="9">
         <v>2500</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F47" s="9">
         <v>2500</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F48" s="9">
         <v>2500</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F49" s="9">
         <v>2500</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F50" s="9">
         <v>2500</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F51" s="9">
         <v>2500</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F52" s="9">
         <v>2500</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F53" s="9">
         <v>2500</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F54" s="9">
         <v>2500</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F55" s="9">
         <v>2500</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F56" s="9">
         <v>2500</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F57" s="9">
         <v>2500</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F58" s="9">
         <v>2500</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" s="9">
         <v>2500</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F60" s="9">
         <v>2500</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F61" s="9">
         <v>2500</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F62" s="9">
         <v>2500</v>
       </c>
-      <c r="G62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F63" s="9">
         <v>2500</v>
       </c>
-      <c r="G63" s="15">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7"/>
+      <c r="G63" s="16">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="16">
+        <v>47</v>
+      </c>
+      <c r="F64" s="17">
         <v>2100</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="17">
+        <v>47</v>
+      </c>
+      <c r="F65" s="18">
         <v>2100</v>
       </c>
-      <c r="G65" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="16">
+        <v>47</v>
+      </c>
+      <c r="F66" s="17">
         <v>1500</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2369,52 +2435,51 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9">
         <v>3500</v>
@@ -2423,16 +2488,16 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9">
         <v>3500</v>
@@ -2441,16 +2506,16 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="9">
         <v>3500</v>
@@ -2459,16 +2524,16 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9">
         <v>3500</v>
@@ -2477,16 +2542,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9">
         <v>3500</v>
@@ -2495,16 +2560,16 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>5500</v>
@@ -2513,16 +2578,16 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9">
         <v>5500</v>
@@ -2531,16 +2596,16 @@
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9">
         <v>5500</v>
@@ -2549,16 +2614,16 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="9">
         <v>5900</v>
@@ -2567,16 +2632,16 @@
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="9">
         <v>5900</v>
@@ -2585,16 +2650,16 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9">
         <v>8500</v>
@@ -2603,16 +2668,16 @@
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9">
         <v>8500</v>
@@ -2621,16 +2686,16 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="9">
         <v>8500</v>
@@ -2639,16 +2704,16 @@
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="9">
         <v>8500</v>
@@ -2657,16 +2722,16 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9">
         <v>8500</v>
@@ -2675,16 +2740,16 @@
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9">
         <v>8500</v>
@@ -2693,16 +2758,16 @@
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9">
         <v>8500</v>
@@ -2711,16 +2776,16 @@
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="9">
         <v>8500</v>
@@ -2729,16 +2794,16 @@
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="9">
         <v>9000</v>
@@ -2747,16 +2812,16 @@
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="9">
         <v>9000</v>
@@ -2765,16 +2830,16 @@
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="9">
         <v>9000</v>
@@ -2783,16 +2848,16 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" s="9">
         <v>3500</v>
@@ -2801,16 +2866,16 @@
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" s="9">
         <v>3500</v>
@@ -2819,16 +2884,16 @@
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E25" s="9">
         <v>3500</v>
@@ -2837,16 +2902,16 @@
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="9">
         <v>3500</v>
@@ -2855,16 +2920,16 @@
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="9">
         <v>3500</v>
@@ -2873,16 +2938,16 @@
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" s="9">
         <v>5500</v>
@@ -2891,16 +2956,16 @@
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="9">
         <v>5500</v>
@@ -2909,16 +2974,16 @@
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="9">
         <v>5500</v>
@@ -2927,16 +2992,16 @@
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E31" s="9">
         <v>5500</v>
@@ -2945,16 +3010,16 @@
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32" s="9">
         <v>5900</v>
@@ -2963,16 +3028,16 @@
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" s="9">
         <v>5900</v>
@@ -2981,16 +3046,16 @@
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="9">
         <v>14500</v>
@@ -2999,16 +3064,16 @@
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="9">
         <v>14500</v>
@@ -3017,16 +3082,16 @@
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" s="9">
         <v>14500</v>
@@ -3035,16 +3100,16 @@
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="9">
         <v>14500</v>
@@ -3053,16 +3118,16 @@
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38" s="9">
         <v>14500</v>
@@ -3071,16 +3136,16 @@
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="9">
         <v>14500</v>
@@ -3089,232 +3154,232 @@
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="10">
+        <v>21</v>
+      </c>
+      <c r="E40" s="11">
         <v>3500</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="10">
+        <v>21</v>
+      </c>
+      <c r="E41" s="11">
         <v>3500</v>
       </c>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="E42" s="11">
         <v>3500</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="11">
+        <v>54</v>
+      </c>
+      <c r="E43" s="12">
         <v>2500</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="10">
+        <v>54</v>
+      </c>
+      <c r="E44" s="11">
         <v>2500</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="E45" s="12">
         <v>2500</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="10">
+        <v>54</v>
+      </c>
+      <c r="E46" s="11">
         <v>2500</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="11">
+        <v>54</v>
+      </c>
+      <c r="E47" s="12">
         <v>2500</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="10">
+        <v>54</v>
+      </c>
+      <c r="E48" s="11">
         <v>2500</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="11">
+        <v>54</v>
+      </c>
+      <c r="E49" s="12">
         <v>2500</v>
       </c>
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="10">
+        <v>54</v>
+      </c>
+      <c r="E50" s="11">
         <v>2500</v>
       </c>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="11">
+        <v>54</v>
+      </c>
+      <c r="E51" s="12">
         <v>2500</v>
       </c>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E52" s="9">
         <v>3500</v>
@@ -3323,16 +3388,16 @@
     </row>
     <row r="53" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53" s="9">
         <v>3500</v>
@@ -3341,16 +3406,16 @@
     </row>
     <row r="54" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54" s="9">
         <v>3500</v>
@@ -3359,16 +3424,16 @@
     </row>
     <row r="55" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" s="9">
         <v>3500</v>
@@ -3377,16 +3442,16 @@
     </row>
     <row r="56" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E56" s="9">
         <v>3500</v>
@@ -3395,16 +3460,16 @@
     </row>
     <row r="57" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57" s="9">
         <v>3500</v>
@@ -3413,16 +3478,16 @@
     </row>
     <row r="58" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58" s="9">
         <v>3500</v>
@@ -3431,16 +3496,16 @@
     </row>
     <row r="59" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E59" s="9">
         <v>3500</v>
@@ -3449,16 +3514,16 @@
     </row>
     <row r="60" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E60" s="9">
         <v>5900</v>
@@ -3467,16 +3532,16 @@
     </row>
     <row r="61" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E61" s="9">
         <v>5900</v>
@@ -3498,13 +3563,12 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,76 +3582,76 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Sombreros.xlsx
+++ b/Sombreros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bravo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2759E04-7857-43B7-A6FD-D1805882CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17207CA-6162-4C48-8AE3-F5417B07D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="114">
   <si>
     <t>Material</t>
   </si>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>./../../assets/sombreros/100x_durango_3x3_ivory.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/george_randado_100x_blanco.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/george_100x_cross_ivory.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/GEORGE_100_X_DIAGONAL_BICOLOR.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/western_100x_full_flower.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/western_100x_ojillo.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/western_100x_mountain.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/western_100x_hexagonal.webp</t>
+  </si>
+  <si>
+    <t>./../../assets/sombreros/western_100x_randado_flower.webp</t>
   </si>
 </sst>
 </file>
@@ -849,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,6 +1409,9 @@
       <c r="G21" s="16">
         <v>1</v>
       </c>
+      <c r="H21" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1544,6 +1571,9 @@
         <v>2500</v>
       </c>
       <c r="G28" s="16"/>
+      <c r="H28" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1567,6 +1597,9 @@
       <c r="G29" s="16">
         <v>1</v>
       </c>
+      <c r="H29" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -1637,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -1660,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1705,8 +1738,11 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
@@ -1752,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -1774,8 +1810,11 @@
       <c r="G38" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1798,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -1821,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
@@ -1843,8 +1882,11 @@
       <c r="G41" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
@@ -1866,8 +1908,11 @@
       <c r="G42" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
@@ -1889,8 +1934,11 @@
       <c r="G43" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
@@ -1936,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>49</v>
       </c>
@@ -1982,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>51</v>
       </c>

--- a/Sombreros.xlsx
+++ b/Sombreros.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="118">
   <si>
     <t>Material</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>./../../assets/sombreros/durango_100x_star_ivory.webp</t>
+  </si>
+  <si>
+    <t>Tiger Full</t>
+  </si>
+  <si>
+    <t>Copa 12 cm    Ala 11cm</t>
+  </si>
+  <si>
+    <t>Randado 1x1</t>
+  </si>
+  <si>
+    <t>Copa 12 cm Ala 11cm</t>
   </si>
   <si>
     <t>Randado 3x3</t>
@@ -368,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +391,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -430,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -468,8 +486,8 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -492,11 +510,23 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I66" displayName="Tabla1" name="Tabla1" id="3" totalsRowShown="0">
-  <autoFilter ref="A1:I66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I68" displayName="Tabla1" name="Tabla1" id="3" totalsRowShown="0">
+  <autoFilter ref="A1:I68"/>
   <tableColumns count="9">
     <tableColumn name="id" id="1"/>
     <tableColumn name="Tipo de sombrero" id="2"/>
@@ -864,7 +894,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -900,7 +930,7 @@
       <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -993,7 +1023,7 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69.75" customFormat="1" s="9">
       <c r="A5" s="10">
@@ -1049,7 +1079,7 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A7" s="10">
@@ -1076,7 +1106,7 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="57" customFormat="1" s="9">
       <c r="A8" s="10">
@@ -1219,7 +1249,7 @@
       <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57" customFormat="1" s="9">
       <c r="A13" s="10">
@@ -1337,79 +1367,69 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75" customFormat="1" s="9">
-      <c r="A17" s="15">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D18" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33.75" customFormat="1" s="9">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33" customFormat="1" s="9">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33" customFormat="1" s="9">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="12">
@@ -1418,11 +1438,13 @@
       <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A20" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>43</v>
@@ -1431,7 +1453,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>44</v>
@@ -1445,11 +1467,11 @@
       <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A21" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>43</v>
@@ -1458,7 +1480,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>44</v>
@@ -1472,13 +1494,11 @@
       <c r="H21" s="10">
         <v>1</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="I21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>43</v>
@@ -1487,7 +1507,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>44</v>
@@ -1501,11 +1521,11 @@
       <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I22" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>43</v>
@@ -1514,7 +1534,7 @@
         <v>67</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>44</v>
@@ -1528,11 +1548,13 @@
       <c r="H23" s="10">
         <v>1</v>
       </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I23" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>43</v>
@@ -1541,7 +1563,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>44</v>
@@ -1555,20 +1577,20 @@
       <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>44</v>
@@ -1582,20 +1604,20 @@
       <c r="H25" s="10">
         <v>1</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A26" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>44</v>
@@ -1609,11 +1631,11 @@
       <c r="H26" s="10">
         <v>1</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A27" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>43</v>
@@ -1622,7 +1644,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>44</v>
@@ -1636,11 +1658,11 @@
       <c r="H27" s="10">
         <v>1</v>
       </c>
-      <c r="I27" s="22"/>
+      <c r="I27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A28" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>43</v>
@@ -1649,7 +1671,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>44</v>
@@ -1660,14 +1682,14 @@
       <c r="G28" s="12">
         <v>2700</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A29" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>43</v>
@@ -1676,7 +1698,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>44</v>
@@ -1690,13 +1712,11 @@
       <c r="H29" s="10">
         <v>1</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="I29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A30" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>43</v>
@@ -1705,7 +1725,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>44</v>
@@ -1716,14 +1736,14 @@
       <c r="G30" s="12">
         <v>2700</v>
       </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A31" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>43</v>
@@ -1732,162 +1752,162 @@
         <v>81</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A32" s="15">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="E33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="E34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="33" customFormat="1" s="9">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A34" s="15">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="E35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="33.75" customFormat="1" s="9">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A36" s="10">
+      <c r="D36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="73.5" customFormat="1" s="9">
+      <c r="A37" s="10">
         <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="12">
-        <v>2700</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A37" s="10">
-        <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>48</v>
@@ -1896,7 +1916,7 @@
         <v>67</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>49</v>
@@ -1910,11 +1930,13 @@
       <c r="H37" s="10">
         <v>1</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I37" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A38" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>48</v>
@@ -1923,7 +1945,7 @@
         <v>67</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>49</v>
@@ -1937,13 +1959,11 @@
       <c r="H38" s="10">
         <v>1</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I38" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A39" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>48</v>
@@ -1952,7 +1972,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>49</v>
@@ -1966,11 +1986,11 @@
       <c r="H39" s="10">
         <v>1</v>
       </c>
-      <c r="I39" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I39" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="73.5" customFormat="1" s="9">
       <c r="A40" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>48</v>
@@ -1979,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>49</v>
@@ -1993,11 +2013,13 @@
       <c r="H40" s="10">
         <v>1</v>
       </c>
-      <c r="I40" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I40" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A41" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>48</v>
@@ -2006,7 +2028,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>49</v>
@@ -2020,22 +2042,20 @@
       <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I41" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A42" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>49</v>
@@ -2049,22 +2069,20 @@
       <c r="H42" s="10">
         <v>1</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I42" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="60" customFormat="1" s="9">
       <c r="A43" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>49</v>
@@ -2079,12 +2097,12 @@
         <v>1</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="73.5" customFormat="1" s="9">
       <c r="A44" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>48</v>
@@ -2093,7 +2111,7 @@
         <v>81</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>49</v>
@@ -2107,11 +2125,13 @@
       <c r="H44" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I44" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="73.5" customFormat="1" s="9">
       <c r="A45" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>48</v>
@@ -2120,7 +2140,7 @@
         <v>81</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>49</v>
@@ -2134,11 +2154,13 @@
       <c r="H45" s="10">
         <v>1</v>
       </c>
-      <c r="I45" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I45" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A46" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>48</v>
@@ -2147,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>49</v>
@@ -2161,11 +2183,11 @@
       <c r="H46" s="10">
         <v>1</v>
       </c>
-      <c r="I46" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I46" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A47" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>48</v>
@@ -2174,7 +2196,7 @@
         <v>81</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>49</v>
@@ -2188,65 +2210,65 @@
       <c r="H47" s="10">
         <v>1</v>
       </c>
-      <c r="I47" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I47" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="46.5" customFormat="1" s="9">
       <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="12">
+        <v>2700</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="46.5" customFormat="1" s="9">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="12">
-        <v>2500</v>
-      </c>
-      <c r="H48" s="10">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A49" s="10">
+      <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G49" s="12">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="H49" s="10">
         <v>1</v>
       </c>
-      <c r="I49" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I49" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A50" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>50</v>
@@ -2255,7 +2277,7 @@
         <v>67</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>44</v>
@@ -2269,11 +2291,11 @@
       <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="I50" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I50" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A51" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>50</v>
@@ -2282,7 +2304,7 @@
         <v>67</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>44</v>
@@ -2296,11 +2318,11 @@
       <c r="H51" s="10">
         <v>1</v>
       </c>
-      <c r="I51" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I51" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A52" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>50</v>
@@ -2309,7 +2331,7 @@
         <v>67</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>44</v>
@@ -2323,11 +2345,11 @@
       <c r="H52" s="10">
         <v>1</v>
       </c>
-      <c r="I52" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I52" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A53" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>50</v>
@@ -2336,7 +2358,7 @@
         <v>67</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>44</v>
@@ -2350,11 +2372,11 @@
       <c r="H53" s="10">
         <v>1</v>
       </c>
-      <c r="I53" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I53" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A54" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>50</v>
@@ -2363,7 +2385,7 @@
         <v>67</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>44</v>
@@ -2377,20 +2399,20 @@
       <c r="H54" s="10">
         <v>1</v>
       </c>
-      <c r="I54" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I54" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A55" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>44</v>
@@ -2404,20 +2426,20 @@
       <c r="H55" s="10">
         <v>1</v>
       </c>
-      <c r="I55" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I55" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A56" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>44</v>
@@ -2431,11 +2453,11 @@
       <c r="H56" s="10">
         <v>1</v>
       </c>
-      <c r="I56" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I56" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A57" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>50</v>
@@ -2444,7 +2466,7 @@
         <v>81</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>44</v>
@@ -2458,11 +2480,11 @@
       <c r="H57" s="10">
         <v>1</v>
       </c>
-      <c r="I57" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I57" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A58" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>50</v>
@@ -2471,7 +2493,7 @@
         <v>81</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>44</v>
@@ -2485,11 +2507,11 @@
       <c r="H58" s="10">
         <v>1</v>
       </c>
-      <c r="I58" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I58" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A59" s="10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>50</v>
@@ -2498,7 +2520,7 @@
         <v>81</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>44</v>
@@ -2512,11 +2534,11 @@
       <c r="H59" s="10">
         <v>1</v>
       </c>
-      <c r="I59" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="I59" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="33" customFormat="1" s="9">
       <c r="A60" s="10">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>50</v>
@@ -2525,7 +2547,7 @@
         <v>81</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>44</v>
@@ -2539,25 +2561,25 @@
       <c r="H60" s="10">
         <v>1</v>
       </c>
-      <c r="I60" s="22"/>
+      <c r="I60" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="D61" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="12">
@@ -2566,25 +2588,25 @@
       <c r="H61" s="10">
         <v>1</v>
       </c>
-      <c r="I61" s="22"/>
+      <c r="I61" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A62" s="15">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="14">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="C62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G62" s="12">
@@ -2593,23 +2615,23 @@
       <c r="H62" s="10">
         <v>1</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="9">
-      <c r="A63" s="14">
-        <v>62</v>
+      <c r="A63" s="15">
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>46</v>
@@ -2620,56 +2642,56 @@
       <c r="H63" s="10">
         <v>1</v>
       </c>
-      <c r="I63" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="15">
-        <v>63</v>
+      <c r="I63" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A64" s="14">
+        <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="16">
-        <v>2100</v>
+        <v>113</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="12">
+        <v>2500</v>
       </c>
       <c r="H64" s="10">
         <v>1</v>
       </c>
-      <c r="I64" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="14">
-        <v>64</v>
+      <c r="I64" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A65" s="15">
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="17">
-        <v>2100</v>
+        <v>113</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="12">
+        <v>2500</v>
       </c>
       <c r="H65" s="10">
         <v>1</v>
@@ -2677,31 +2699,83 @@
       <c r="I65" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="15">
-        <v>65</v>
+      <c r="A66" s="14">
+        <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="16">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1</v>
+      </c>
+      <c r="I66" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="15">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="17">
+        <v>2100</v>
+      </c>
+      <c r="H67" s="10">
+        <v>1</v>
+      </c>
+      <c r="I67" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="15"/>
+      <c r="B68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" s="16">
+      <c r="D68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="16">
         <v>1500</v>
       </c>
-      <c r="H66" s="10">
-        <v>1</v>
-      </c>
-      <c r="I66" s="11"/>
+      <c r="H68" s="10">
+        <v>1</v>
+      </c>
+      <c r="I68" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2729,7 +2803,7 @@
     <col min="5" max="5" style="19" width="12.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="20" width="12.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="9">
